--- a/data_output/prism_passive/all_passive_out_emg_mean_common_max.xlsx
+++ b/data_output/prism_passive/all_passive_out_emg_mean_common_max.xlsx
@@ -363,60 +363,468 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:AY3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:E3"/>
+      <selection activeCell="B1" sqref="B1:AY3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+      <c r="D1">
+        <v>3</v>
+      </c>
+      <c r="E1">
+        <v>4</v>
+      </c>
+      <c r="F1">
+        <v>5</v>
+      </c>
+      <c r="G1">
+        <v>6</v>
+      </c>
+      <c r="H1">
+        <v>7</v>
+      </c>
+      <c r="I1">
+        <v>8</v>
+      </c>
+      <c r="J1">
+        <v>9</v>
+      </c>
+      <c r="K1">
+        <v>10</v>
+      </c>
+      <c r="L1">
+        <v>11</v>
+      </c>
+      <c r="M1">
+        <v>13</v>
+      </c>
+      <c r="N1">
         <v>15</v>
       </c>
-      <c r="C1">
+      <c r="O1">
         <v>16</v>
       </c>
-      <c r="D1">
+      <c r="P1">
+        <v>18</v>
+      </c>
+      <c r="Q1">
+        <v>19</v>
+      </c>
+      <c r="R1">
+        <v>20</v>
+      </c>
+      <c r="S1">
+        <v>21</v>
+      </c>
+      <c r="T1">
+        <v>22</v>
+      </c>
+      <c r="U1">
+        <v>24</v>
+      </c>
+      <c r="V1">
+        <v>25</v>
+      </c>
+      <c r="W1">
+        <v>26</v>
+      </c>
+      <c r="X1">
+        <v>28</v>
+      </c>
+      <c r="Y1">
+        <v>30</v>
+      </c>
+      <c r="Z1">
+        <v>31</v>
+      </c>
+      <c r="AA1">
+        <v>1</v>
+      </c>
+      <c r="AB1">
+        <v>2</v>
+      </c>
+      <c r="AC1">
+        <v>3</v>
+      </c>
+      <c r="AD1">
+        <v>4</v>
+      </c>
+      <c r="AE1">
+        <v>5</v>
+      </c>
+      <c r="AF1">
+        <v>6</v>
+      </c>
+      <c r="AG1">
+        <v>7</v>
+      </c>
+      <c r="AH1">
+        <v>8</v>
+      </c>
+      <c r="AI1">
+        <v>9</v>
+      </c>
+      <c r="AJ1">
+        <v>10</v>
+      </c>
+      <c r="AK1">
+        <v>11</v>
+      </c>
+      <c r="AL1">
+        <v>13</v>
+      </c>
+      <c r="AM1">
         <v>15</v>
       </c>
-      <c r="E1">
+      <c r="AN1">
         <v>16</v>
       </c>
+      <c r="AO1">
+        <v>18</v>
+      </c>
+      <c r="AP1">
+        <v>19</v>
+      </c>
+      <c r="AQ1">
+        <v>20</v>
+      </c>
+      <c r="AR1">
+        <v>21</v>
+      </c>
+      <c r="AS1">
+        <v>22</v>
+      </c>
+      <c r="AT1">
+        <v>24</v>
+      </c>
+      <c r="AU1">
+        <v>25</v>
+      </c>
+      <c r="AV1">
+        <v>26</v>
+      </c>
+      <c r="AW1">
+        <v>28</v>
+      </c>
+      <c r="AX1">
+        <v>30</v>
+      </c>
+      <c r="AY1">
+        <v>31</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
+      <c r="B2">
+        <v>0.52780515373423342</v>
+      </c>
       <c r="C2">
+        <v>0.77248537033185216</v>
+      </c>
+      <c r="D2">
+        <v>4.0796464742057683</v>
+      </c>
+      <c r="E2">
+        <v>2.9808696808567499</v>
+      </c>
+      <c r="F2">
+        <v>5.9331519930936043</v>
+      </c>
+      <c r="G2">
+        <v>3.4163428556486104</v>
+      </c>
+      <c r="H2">
+        <v>5.7745661294016397</v>
+      </c>
+      <c r="I2">
+        <v>0.60262083169817848</v>
+      </c>
+      <c r="J2">
+        <v>4.6716540161360047</v>
+      </c>
+      <c r="K2">
+        <v>4.2662683095635892</v>
+      </c>
+      <c r="L2">
+        <v>0.620678802309094</v>
+      </c>
+      <c r="M2">
+        <v>2.2047076815852513</v>
+      </c>
+      <c r="O2">
         <v>2.2467795749333228</v>
       </c>
-      <c r="D2">
+      <c r="P2">
+        <v>0.93020345491745215</v>
+      </c>
+      <c r="Q2">
+        <v>1.4219334081892931</v>
+      </c>
+      <c r="R2">
+        <v>2.8437927445233089</v>
+      </c>
+      <c r="S2">
+        <v>5.3236622797892847</v>
+      </c>
+      <c r="T2">
+        <v>3.3426339810565926</v>
+      </c>
+      <c r="U2">
+        <v>2.1602707703566439</v>
+      </c>
+      <c r="V2">
+        <v>8.2202949471913431</v>
+      </c>
+      <c r="W2">
+        <v>1.4544089921204972</v>
+      </c>
+      <c r="X2">
+        <v>0.23736081440776075</v>
+      </c>
+      <c r="Y2">
+        <v>0.39907234787817075</v>
+      </c>
+      <c r="AA2">
+        <v>1.301410214197251</v>
+      </c>
+      <c r="AB2">
+        <v>0.32433374577419605</v>
+      </c>
+      <c r="AC2">
+        <v>3.8899874507622534</v>
+      </c>
+      <c r="AD2">
+        <v>0.79791564149692218</v>
+      </c>
+      <c r="AE2">
+        <v>1.8739893771370295</v>
+      </c>
+      <c r="AF2">
+        <v>3.0417353457316296</v>
+      </c>
+      <c r="AG2">
+        <v>3.7497491094186053</v>
+      </c>
+      <c r="AH2">
+        <v>0.54352207676089148</v>
+      </c>
+      <c r="AI2">
+        <v>5.2979701873987981</v>
+      </c>
+      <c r="AJ2">
+        <v>5.371155595234856</v>
+      </c>
+      <c r="AK2">
+        <v>1.1589117492926024</v>
+      </c>
+      <c r="AL2">
+        <v>1.3547474248460716</v>
+      </c>
+      <c r="AM2">
         <v>0.15923426945457692</v>
       </c>
-      <c r="E2">
+      <c r="AN2">
         <v>2.4852619512702283</v>
       </c>
+      <c r="AO2">
+        <v>1.9649362319441792</v>
+      </c>
+      <c r="AP2">
+        <v>1.3525548046505669</v>
+      </c>
+      <c r="AQ2">
+        <v>2.028382801602179</v>
+      </c>
+      <c r="AR2">
+        <v>1.1957706240885095</v>
+      </c>
+      <c r="AS2">
+        <v>1.7645808277862298</v>
+      </c>
+      <c r="AT2">
+        <v>1.0237194892601802</v>
+      </c>
+      <c r="AU2">
+        <v>5.542754279011004</v>
+      </c>
+      <c r="AV2">
+        <v>0.65558599229235404</v>
+      </c>
+      <c r="AW2">
+        <v>0.36716470923321654</v>
+      </c>
+      <c r="AX2">
+        <v>0.2662943196579094</v>
+      </c>
+      <c r="AY2">
+        <v>1.3482740177382107</v>
+      </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:51" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.6866040873827712</v>
+      </c>
+      <c r="C3">
+        <v>0.83387413728531157</v>
+      </c>
+      <c r="D3">
+        <v>1.8004114111466478</v>
+      </c>
+      <c r="E3">
+        <v>3.9567718443419104</v>
+      </c>
+      <c r="F3">
+        <v>2.180691603631729</v>
+      </c>
+      <c r="G3">
+        <v>2.9608155361491373</v>
+      </c>
+      <c r="H3">
+        <v>6.5599631388976292</v>
+      </c>
+      <c r="I3">
+        <v>2.8316734516598374</v>
+      </c>
+      <c r="J3">
+        <v>2.7973947720489258</v>
+      </c>
+      <c r="K3">
+        <v>3.63706148887821</v>
+      </c>
+      <c r="L3">
+        <v>1.378645604288369</v>
+      </c>
+      <c r="M3">
+        <v>1.8819377551797332</v>
+      </c>
+      <c r="N3">
         <v>0.19514827042883004</v>
       </c>
-      <c r="C3">
+      <c r="O3">
         <v>3.3193829163537769</v>
       </c>
-      <c r="D3">
+      <c r="P3">
+        <v>1.1508697315035348</v>
+      </c>
+      <c r="Q3">
+        <v>1.0375962538604526</v>
+      </c>
+      <c r="R3">
+        <v>3.3047054672274783</v>
+      </c>
+      <c r="S3">
+        <v>2.0054345448612891</v>
+      </c>
+      <c r="T3">
+        <v>0.4888564380036734</v>
+      </c>
+      <c r="U3">
+        <v>5.1719569036915471</v>
+      </c>
+      <c r="V3">
+        <v>5.8986964291851409</v>
+      </c>
+      <c r="W3">
+        <v>0.25095161110201147</v>
+      </c>
+      <c r="X3">
+        <v>0.73834503063641721</v>
+      </c>
+      <c r="Y3">
+        <v>0.92938404070575709</v>
+      </c>
+      <c r="AA3">
+        <v>1.2018454591274215</v>
+      </c>
+      <c r="AB3">
+        <v>3.2764159998307725</v>
+      </c>
+      <c r="AC3">
+        <v>2.802251227202714</v>
+      </c>
+      <c r="AD3">
+        <v>1.907650110501844</v>
+      </c>
+      <c r="AE3">
+        <v>1.2529522287529831</v>
+      </c>
+      <c r="AF3">
+        <v>0.76977254156012298</v>
+      </c>
+      <c r="AG3">
+        <v>2.0728049943183886</v>
+      </c>
+      <c r="AH3">
+        <v>0.51548679054264868</v>
+      </c>
+      <c r="AI3">
+        <v>2.4913754092520515</v>
+      </c>
+      <c r="AJ3">
+        <v>3.8954559028612756</v>
+      </c>
+      <c r="AK3">
+        <v>1.4451241577070324</v>
+      </c>
+      <c r="AL3">
+        <v>1.4099768850706902</v>
+      </c>
+      <c r="AM3">
         <v>0.22771540510694624</v>
       </c>
-      <c r="E3">
+      <c r="AN3">
         <v>2.3528462623469117</v>
+      </c>
+      <c r="AO3">
+        <v>0.91938632289952982</v>
+      </c>
+      <c r="AP3">
+        <v>0.18991802425939253</v>
+      </c>
+      <c r="AQ3">
+        <v>0.84287133618877097</v>
+      </c>
+      <c r="AR3">
+        <v>1.1485776347952794</v>
+      </c>
+      <c r="AS3">
+        <v>0.68827578721828497</v>
+      </c>
+      <c r="AT3">
+        <v>1.6040277907287126</v>
+      </c>
+      <c r="AU3">
+        <v>6.2504398057732615</v>
+      </c>
+      <c r="AV3">
+        <v>0.5688179901845013</v>
+      </c>
+      <c r="AW3">
+        <v>0.49245258998221358</v>
+      </c>
+      <c r="AX3">
+        <v>1.3598274954621785</v>
+      </c>
+      <c r="AY3">
+        <v>2.6803046443037641</v>
       </c>
     </row>
   </sheetData>
